--- a/ID-overview.xlsx
+++ b/ID-overview.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benbe\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uni\Q&amp;U Project\SLOTest_2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{652F2274-8664-4E75-A93B-C128E015B22F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880CDC09-0733-4EF5-B684-60B5A604B9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2715" windowWidth="29040" windowHeight="15840" xr2:uid="{EC8FBFC7-18FE-46A4-9E47-55AF37D8947C}"/>
+    <workbookView xWindow="-23040" yWindow="2835" windowWidth="17610" windowHeight="15600" xr2:uid="{EC8FBFC7-18FE-46A4-9E47-55AF37D8947C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="107">
   <si>
     <t>Ids with b1 &amp; b2</t>
   </si>
@@ -356,7 +356,7 @@
     <t>hgsih#82</t>
   </si>
   <si>
-    <t>no</t>
+    <t>0/2</t>
   </si>
 </sst>
 </file>
@@ -385,7 +385,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -446,30 +446,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -784,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3A7295-C86C-49BE-8C70-E8D36DAA591A}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,7 +790,7 @@
     <col min="9" max="9" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -831,669 +822,645 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="J2" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I3" s="5" t="s">
+      <c r="H3" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="J3" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="H4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="J4" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="F5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I5" s="5" t="s">
+      <c r="H5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="J5" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I6" s="5" t="s">
+      <c r="H6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="J6" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I7" s="5" t="s">
+      <c r="H7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="J7" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="F8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I8" s="5" t="s">
+      <c r="H8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="J8" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="F9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I9" s="5" t="s">
+      <c r="H9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="J9" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="F10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I10" s="5" t="s">
+      <c r="H10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="J10" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="F11" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I11" s="5" t="s">
+      <c r="H11" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="J11" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="D12" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G12" s="5" t="s">
+      <c r="F12" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I12" s="5" t="s">
+      <c r="H12" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="J12" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="D13" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13" s="5" t="s">
+      <c r="F13" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I13" s="5" t="s">
+      <c r="H13" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="J13" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="D14" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" s="5" t="s">
+      <c r="F14" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I14" s="5" t="s">
+      <c r="H14" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="K14" s="7"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="J14" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="D15" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="F15" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I15" s="5" t="s">
+      <c r="H15" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="K15" s="7"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="J15" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="D16" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G16" s="5" t="s">
+      <c r="F16" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I16" s="5" t="s">
+      <c r="H16" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="J16" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="K16" s="7"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="J16" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="D17" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" s="5" t="s">
+      <c r="F17" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I17" s="5" t="s">
+      <c r="H17" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="J17" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="J17" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="D18" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G18" s="5" t="s">
+      <c r="F18" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I18" s="5" t="s">
+      <c r="H18" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="J18" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="K18" s="7"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="J18" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="D19" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="5" t="s">
+      <c r="F19" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I19" s="5" t="s">
+      <c r="H19" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="J19" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="K19" s="7"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="J19" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="B20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E20" s="5" t="s">
+      <c r="D20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G20" s="5" t="s">
+      <c r="F20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I20" s="5" t="s">
+      <c r="H20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="J20" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="K20" s="7"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="J20" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" s="5" t="s">
+      <c r="B21" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="D21" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G21" s="5" t="s">
+      <c r="F21" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I21" s="5" t="s">
+      <c r="H21" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="J21" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K22" s="7"/>
+      <c r="J21" s="5" t="s">
+        <v>106</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/ID-overview.xlsx
+++ b/ID-overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uni\Q&amp;U Project\SLOTest_2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880CDC09-0733-4EF5-B684-60B5A604B9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C4D671-8B94-4C62-9FBF-42956C58DCE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23040" yWindow="2835" windowWidth="17610" windowHeight="15600" xr2:uid="{EC8FBFC7-18FE-46A4-9E47-55AF37D8947C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="116">
   <si>
     <t>Ids with b1 &amp; b2</t>
   </si>
@@ -357,6 +357,33 @@
   </si>
   <si>
     <t>0/2</t>
+  </si>
+  <si>
+    <t>associated PIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">associated PIN </t>
+  </si>
+  <si>
+    <t>PJF88</t>
+  </si>
+  <si>
+    <t>FPM6 ?</t>
+  </si>
+  <si>
+    <t>BBM03</t>
+  </si>
+  <si>
+    <t>MJB21</t>
+  </si>
+  <si>
+    <t>ULB02</t>
+  </si>
+  <si>
+    <t>SHF89</t>
+  </si>
+  <si>
+    <t>VWB51</t>
   </si>
 </sst>
 </file>
@@ -385,7 +412,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -394,8 +421,23 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -403,7 +445,39 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -413,20 +487,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -434,13 +495,48 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -450,17 +546,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -775,692 +881,827 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3A7295-C86C-49BE-8C70-E8D36DAA591A}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="22.85546875" customWidth="1"/>
-    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" customWidth="1"/>
+    <col min="13" max="13" width="22.85546875" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O1" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="1">
         <v>0.5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="K2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="1">
         <v>0.5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="K3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="1">
         <v>0.5</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="K4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I5" s="4" t="s">
+      <c r="K5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="K6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I7" s="4" t="s">
+      <c r="K7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I8" s="4" t="s">
+      <c r="K8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I9" s="4" t="s">
+      <c r="K9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I10" s="4" t="s">
+      <c r="K10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I11" s="4" t="s">
+      <c r="K11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I12" s="4" t="s">
+      <c r="K12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I13" s="4" t="s">
+      <c r="K13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" s="4" t="s">
+      <c r="H14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I14" s="4" t="s">
+      <c r="K14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="J14" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G15" s="4" t="s">
+      <c r="H15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I15" s="4" t="s">
+      <c r="K15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="J15" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G16" s="4" t="s">
+      <c r="H16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I16" s="4" t="s">
+      <c r="K16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="J16" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="B17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" s="4" t="s">
+      <c r="H17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I17" s="4" t="s">
+      <c r="K17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L17" s="5"/>
+      <c r="M17" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="J17" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="B18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G18" s="4" t="s">
+      <c r="H18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I18" s="4" t="s">
+      <c r="K18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="J18" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O18" s="5"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="B19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="4" t="s">
+      <c r="H19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I19" s="4" t="s">
+      <c r="K19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L19" s="5"/>
+      <c r="M19" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="J19" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O19" s="5"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="B20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G20" s="4" t="s">
+      <c r="H20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H20" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I20" s="4" t="s">
+      <c r="K20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="J20" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="N20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O20" s="5"/>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" s="4" t="s">
+      <c r="B21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G21" s="4" t="s">
+      <c r="H21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I21" s="4" t="s">
+      <c r="K21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L21" s="8"/>
+      <c r="M21" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="J21" s="5" t="s">
-        <v>106</v>
-      </c>
+      <c r="N21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="O21" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/ID-overview.xlsx
+++ b/ID-overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uni\Q&amp;U Project\SLOTest_2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C4D671-8B94-4C62-9FBF-42956C58DCE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5FEEB0-AAB3-49D3-BD20-9BEFB023DE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23040" yWindow="2835" windowWidth="17610" windowHeight="15600" xr2:uid="{EC8FBFC7-18FE-46A4-9E47-55AF37D8947C}"/>
+    <workbookView xWindow="10695" yWindow="0" windowWidth="17610" windowHeight="15600" xr2:uid="{EC8FBFC7-18FE-46A4-9E47-55AF37D8947C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -546,7 +546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -566,7 +566,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -883,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3A7295-C86C-49BE-8C70-E8D36DAA591A}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,39 +912,39 @@
         <v>107</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>108</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>107</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="10" t="s">
         <v>107</v>
       </c>
     </row>
@@ -960,28 +959,28 @@
         <v>109</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>106</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="4" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="4" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>106</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="4" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>106</v>
@@ -999,28 +998,28 @@
         <v>110</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>106</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="4" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="4" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>106</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="4" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>106</v>
@@ -1038,28 +1037,28 @@
         <v>111</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>106</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="4" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="4" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>106</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="4" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>106</v>
@@ -1077,28 +1076,28 @@
         <v>112</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>106</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="4" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="4" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>106</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="4" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>106</v>
@@ -1116,28 +1115,28 @@
         <v>113</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>106</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="4" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="4" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>106</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="4" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>106</v>
@@ -1155,28 +1154,28 @@
         <v>114</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>106</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="4" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="4" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>106</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="4" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>106</v>
@@ -1194,28 +1193,28 @@
         <v>115</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>106</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="4" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="4" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>106</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="4" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>106</v>
@@ -1231,28 +1230,28 @@
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="4" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>106</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="4" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="4" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>106</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="4" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>106</v>
@@ -1268,28 +1267,28 @@
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="4" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>106</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="4" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="4" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>106</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="4" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>106</v>
@@ -1305,28 +1304,28 @@
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="4" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>106</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="4" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="4" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>106</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="4" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>106</v>
@@ -1342,28 +1341,28 @@
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="4" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>106</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="4" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="4" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>106</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="4" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>106</v>
@@ -1379,28 +1378,28 @@
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="4" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>106</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="4" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="4" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>106</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="4" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>106</v>
@@ -1416,28 +1415,28 @@
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="4" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>106</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="4" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="4" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>106</v>
       </c>
       <c r="L14" s="5"/>
       <c r="M14" s="4" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>106</v>
@@ -1453,28 +1452,28 @@
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="4" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>106</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="4" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="4" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>106</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="4" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>106</v>
@@ -1490,28 +1489,28 @@
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="4" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>106</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="4" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="4" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>106</v>
       </c>
       <c r="L16" s="5"/>
       <c r="M16" s="4" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>106</v>
@@ -1527,28 +1526,28 @@
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="4" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>106</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="4" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="4" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>106</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="4" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>106</v>
@@ -1564,28 +1563,28 @@
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="4" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>106</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="4" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="4" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>106</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="4" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>106</v>
@@ -1601,28 +1600,28 @@
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="4" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>106</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="4" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="4" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>106</v>
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="4" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>106</v>
@@ -1638,28 +1637,28 @@
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="4" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>106</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="4" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="4" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>106</v>
       </c>
       <c r="L20" s="5"/>
       <c r="M20" s="4" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>106</v>
@@ -1675,28 +1674,28 @@
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="6" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>106</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="6" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>106</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="6" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>106</v>
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="6" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="N21" s="7" t="s">
         <v>106</v>
